--- a/docentes/Rodriguez Roman Marisol Estadisticos 2020.xlsx
+++ b/docentes/Rodriguez Roman Marisol Estadisticos 2020.xlsx
@@ -922,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -945,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -968,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -991,7 +991,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1014,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1037,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1060,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1083,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1106,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1129,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
